--- a/MFA-codes/13C-Glucose_tracing_Mike.xlsx
+++ b/MFA-codes/13C-Glucose_tracing_Mike.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF45F02-B8E5-4C0E-8A38-A0ABCAF5A3CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB018AEA-FDAC-410D-B935-1360386DDDD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" tabRatio="831" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9645" tabRatio="831" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HCT116_WQ2101_PHGDH" sheetId="3" r:id="rId1"/>
@@ -21280,7 +21280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+    <sheetView topLeftCell="A265" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -46963,8 +46963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C825043-3029-4C2C-965C-E9B877557BFE}">
   <dimension ref="A1:J811"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57790,31 +57790,31 @@
         <v>334</v>
       </c>
       <c r="B339">
-        <v>45517.5780000003</v>
+        <v>45725.957472084301</v>
       </c>
       <c r="C339">
-        <v>38798.988000000259</v>
+        <v>38976.609767064263</v>
       </c>
       <c r="D339">
         <v>0</v>
       </c>
       <c r="E339">
-        <v>337573.50000000064</v>
+        <v>339118.91148300061</v>
       </c>
       <c r="F339">
-        <v>358609.25699999859</v>
+        <v>360250.97017854458</v>
       </c>
       <c r="G339">
-        <v>184056.53399999987</v>
+        <v>315494.28481265198</v>
       </c>
       <c r="H339">
-        <v>702901.59900000098</v>
+        <v>706119.48252022301</v>
       </c>
       <c r="I339">
-        <v>926522.96100000269</v>
+        <v>930764.5831154607</v>
       </c>
       <c r="J339">
-        <v>847616.08800000011</v>
+        <v>851496.47445086413</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.45">
@@ -57854,31 +57854,31 @@
         <v>336</v>
       </c>
       <c r="B341">
-        <v>1059451.143000005</v>
+        <v>1064301.3103326589</v>
       </c>
       <c r="C341">
-        <v>1227183.8670000019</v>
+        <v>1232801.914743128</v>
       </c>
       <c r="D341">
-        <v>915514.06800001115</v>
+        <v>919705.29140331515</v>
       </c>
       <c r="E341">
-        <v>1217457.1889999937</v>
+        <v>1223030.7080112356</v>
       </c>
       <c r="F341">
-        <v>817929.36599999771</v>
+        <v>821673.84663754562</v>
       </c>
       <c r="G341">
-        <v>831191.01599999669</v>
+        <v>834996.20847124467</v>
       </c>
       <c r="H341">
-        <v>921965.17199999816</v>
+        <v>926185.9285574141</v>
       </c>
       <c r="I341">
-        <v>1076089.9170000013</v>
+        <v>1081016.2566400273</v>
       </c>
       <c r="J341">
-        <v>1134922.0739999989</v>
+        <v>1140117.7472547707</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.45">
@@ -57886,31 +57886,31 @@
         <v>337</v>
       </c>
       <c r="B342">
-        <v>19972.836000000301</v>
+        <v>20064.271643208303</v>
       </c>
       <c r="C342">
-        <v>17512.90800000012</v>
+        <v>17593.082092824119</v>
       </c>
       <c r="D342">
-        <v>31312.593000000474</v>
+        <v>31455.942050754475</v>
       </c>
       <c r="E342">
-        <v>21039.758999999838</v>
+        <v>21136.079016701839</v>
       </c>
       <c r="F342">
-        <v>48330.89699999999</v>
+        <v>48552.15584646599</v>
       </c>
       <c r="G342">
-        <v>36083.85300000009</v>
+        <v>36249.044879034089</v>
       </c>
       <c r="H342">
         <v>0</v>
       </c>
       <c r="I342">
-        <v>39029.912999999549</v>
+        <v>39208.591941713545</v>
       </c>
       <c r="J342">
-        <v>114432.59399999984</v>
+        <v>114956.46641533183</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
@@ -57921,28 +57921,28 @@
         <v>0</v>
       </c>
       <c r="C343">
-        <v>122893.01699999996</v>
+        <v>123455.62123182596</v>
       </c>
       <c r="D343">
-        <v>236035.33500000151</v>
+        <v>237115.90476363149</v>
       </c>
       <c r="E343">
-        <v>277440.07799999847</v>
+        <v>278710.19867708243</v>
       </c>
       <c r="F343">
-        <v>455500.7309999998</v>
+        <v>457586.01334651781</v>
       </c>
       <c r="G343">
-        <v>181105.3379999997</v>
+        <v>181934.43823736371</v>
       </c>
       <c r="H343">
-        <v>129102.71400000047</v>
+        <v>129693.74622469247</v>
       </c>
       <c r="I343">
-        <v>183484.34099999999</v>
+        <v>184324.33231309798</v>
       </c>
       <c r="J343">
-        <v>218268.7109999992</v>
+        <v>219267.94515895718</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.45">
@@ -57950,31 +57950,31 @@
         <v>339</v>
       </c>
       <c r="B344">
-        <v>4012395.3780000112</v>
+        <v>5035342.1240404937</v>
       </c>
       <c r="C344">
-        <v>4196000.0249999836</v>
+        <v>5822534.1131144296</v>
       </c>
       <c r="D344">
-        <v>3289745.4120000023</v>
+        <v>4309383.8664961355</v>
       </c>
       <c r="E344">
-        <v>6006367.9320000112</v>
+        <v>6033865.0843927069</v>
       </c>
       <c r="F344">
-        <v>5692732.1759999963</v>
+        <v>5718793.5039017238</v>
       </c>
       <c r="G344">
-        <v>5230704.6300000018</v>
+        <v>4250072.7957961401</v>
       </c>
       <c r="H344">
-        <v>5433853.1460000072</v>
+        <v>5458729.3257023953</v>
       </c>
       <c r="I344">
-        <v>6438596.9490000149</v>
+        <v>6468072.8458325369</v>
       </c>
       <c r="J344">
-        <v>6873878.8530000057</v>
+        <v>6905347.4703890393</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
@@ -57982,31 +57982,31 @@
         <v>340</v>
       </c>
       <c r="B345">
-        <v>250883.85600000137</v>
+        <v>252032.40229276937</v>
       </c>
       <c r="C345">
-        <v>503070.71999999764</v>
+        <v>505373.77775615762</v>
       </c>
       <c r="D345">
-        <v>331936.05300000194</v>
+        <v>333455.65625063592</v>
       </c>
       <c r="E345">
-        <v>162324.76200000019</v>
+        <v>163067.88476043619</v>
       </c>
       <c r="F345">
-        <v>89933.687999998961</v>
+        <v>90345.404423662956</v>
       </c>
       <c r="G345">
-        <v>84992.871000000014</v>
+        <v>85381.968363438005</v>
       </c>
       <c r="H345">
-        <v>61105.148999999801</v>
+        <v>61384.888372121801</v>
       </c>
       <c r="I345">
-        <v>136036.98599999986</v>
+        <v>136659.76332190784</v>
       </c>
       <c r="J345">
-        <v>129055.70099999981</v>
+        <v>129646.51799917781</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
@@ -58014,31 +58014,31 @@
         <v>341</v>
       </c>
       <c r="B346">
-        <v>761823.3540000018</v>
+        <v>765310.98131461383</v>
       </c>
       <c r="C346">
-        <v>879461.55299999728</v>
+        <v>883487.72798963124</v>
       </c>
       <c r="D346">
-        <v>513236.62200000056</v>
+        <v>515586.21925551654</v>
       </c>
       <c r="E346">
-        <v>404517.82200000167</v>
+        <v>406369.70458911767</v>
       </c>
       <c r="F346">
-        <v>529290.17699999921</v>
+        <v>531713.26743030525</v>
       </c>
       <c r="G346">
-        <v>302097.83400000038</v>
+        <v>303480.83788405237</v>
       </c>
       <c r="H346">
-        <v>566210.35200000065</v>
+        <v>568802.46299145662</v>
       </c>
       <c r="I346">
-        <v>510570.18000000139</v>
+        <v>512907.5702840414</v>
       </c>
       <c r="J346">
-        <v>666591.53100000159</v>
+        <v>669643.18702891958</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
@@ -58046,31 +58046,31 @@
         <v>342</v>
       </c>
       <c r="B347">
-        <v>277292.04600000131</v>
+        <v>278561.48898658931</v>
       </c>
       <c r="C347">
-        <v>694932.5789999977</v>
+        <v>698113.98034665966</v>
       </c>
       <c r="D347">
-        <v>213042.25200000097</v>
+        <v>214017.55942965698</v>
       </c>
       <c r="E347">
-        <v>1388220.3720000042</v>
+        <v>1394575.6448630202</v>
       </c>
       <c r="F347">
-        <v>1260045.6269999952</v>
+        <v>1265814.1158804011</v>
       </c>
       <c r="G347">
-        <v>1313589.9330000009</v>
+        <v>1319603.5477132748</v>
       </c>
       <c r="H347">
-        <v>1319202.8790000016</v>
+        <v>1325242.1897800635</v>
       </c>
       <c r="I347">
-        <v>1280077.0110000046</v>
+        <v>1285937.2035563625</v>
       </c>
       <c r="J347">
-        <v>1455097.2360000047</v>
+        <v>1461758.6711464126</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.45">
@@ -58087,22 +58087,22 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>91123.848000000609</v>
+        <v>91541.012976144615</v>
       </c>
       <c r="F348">
-        <v>70857.953999999387</v>
+        <v>71182.341713411384</v>
       </c>
       <c r="G348">
-        <v>42074.892000000284</v>
+        <v>42267.510855576285</v>
       </c>
       <c r="H348">
-        <v>43005.81600000029</v>
+        <v>43202.696625648292</v>
       </c>
       <c r="I348">
-        <v>42374.142000000291</v>
+        <v>42568.130822076288</v>
       </c>
       <c r="J348">
-        <v>64849.242000000435</v>
+        <v>65146.121829876436</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.45">
@@ -70238,31 +70238,31 @@
         <v>301</v>
       </c>
       <c r="B728">
-        <v>197689.9709999992</v>
+        <v>228175.93995115298</v>
       </c>
       <c r="C728">
-        <v>239141.07000000024</v>
+        <v>239651.47954704938</v>
       </c>
       <c r="D728">
-        <v>95511.350999999733</v>
+        <v>195928.63967444911</v>
       </c>
       <c r="E728">
-        <v>835498.08900000178</v>
+        <v>837281.33016876853</v>
       </c>
       <c r="F728">
-        <v>1031719.7280000017</v>
+        <v>1033921.7738428599</v>
       </c>
       <c r="G728">
-        <v>697646.35500000033</v>
+        <v>699135.37300956284</v>
       </c>
       <c r="H728">
-        <v>1789453.1999999937</v>
+        <v>1793272.5104901476</v>
       </c>
       <c r="I728">
-        <v>2423373.2669999977</v>
+        <v>2428545.5816155528</v>
       </c>
       <c r="J728">
-        <v>2049938.9399999981</v>
+        <v>2054314.2169268923</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.45">
@@ -70288,13 +70288,13 @@
         <v>0</v>
       </c>
       <c r="H729">
-        <v>122293.03200000015</v>
+        <v>122554.04752138419</v>
       </c>
       <c r="I729">
-        <v>108309.6210000009</v>
+        <v>108540.79109803414</v>
       </c>
       <c r="J729">
-        <v>77918.649000000558</v>
+        <v>78084.954278900463</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.45">
@@ -70311,7 +70311,7 @@
         <v>0</v>
       </c>
       <c r="E730">
-        <v>15317.757000000231</v>
+        <v>15350.450378064395</v>
       </c>
       <c r="F730">
         <v>0</v>
@@ -70320,13 +70320,13 @@
         <v>0</v>
       </c>
       <c r="H730">
-        <v>48370.02299999963</v>
+        <v>48473.261316739561</v>
       </c>
       <c r="I730">
-        <v>89435.211000000098</v>
+        <v>89626.096595421885</v>
       </c>
       <c r="J730">
-        <v>31307.56200000014</v>
+        <v>31374.38313841703</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.45">
@@ -70343,22 +70343,22 @@
         <v>0</v>
       </c>
       <c r="E731">
-        <v>45262.268999999971</v>
+        <v>45358.874297528775</v>
       </c>
       <c r="F731">
-        <v>24452.628000000273</v>
+        <v>24504.818344308933</v>
       </c>
       <c r="G731">
-        <v>25269.77699999998</v>
+        <v>25323.711422191045</v>
       </c>
       <c r="H731">
-        <v>36526.229999999719</v>
+        <v>36604.18957636907</v>
       </c>
       <c r="I731">
-        <v>88042.298999999664</v>
+        <v>88230.211640658817</v>
       </c>
       <c r="J731">
-        <v>50348.375999999989</v>
+        <v>50455.836804573708</v>
       </c>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.45">
@@ -70366,31 +70366,31 @@
         <v>305</v>
       </c>
       <c r="B732">
-        <v>61343.621999999945</v>
+        <v>61474.550452897536</v>
       </c>
       <c r="C732">
-        <v>62543.949000000124</v>
+        <v>62677.439364828526</v>
       </c>
       <c r="D732">
-        <v>56164.094999999565</v>
+        <v>56283.968555342341</v>
       </c>
       <c r="E732">
-        <v>212132.11500000057</v>
+        <v>212584.87811899025</v>
       </c>
       <c r="F732">
-        <v>222200.89800000068</v>
+        <v>222675.15137564248</v>
       </c>
       <c r="G732">
-        <v>219397.24500000011</v>
+        <v>219865.51441287962</v>
       </c>
       <c r="H732">
-        <v>259454.0789999986</v>
+        <v>260007.84351624185</v>
       </c>
       <c r="I732">
-        <v>230757.28499999931</v>
+        <v>231249.80065745264</v>
       </c>
       <c r="J732">
-        <v>237865.50299999907</v>
+        <v>238373.1900469996</v>
       </c>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.45">
@@ -70398,31 +70398,31 @@
         <v>306</v>
       </c>
       <c r="B733">
-        <v>2484097.2299999963</v>
+        <v>2489399.1505023604</v>
       </c>
       <c r="C733">
-        <v>2780683.6019999981</v>
+        <v>2786618.5401425087</v>
       </c>
       <c r="D733">
-        <v>2307684.9809999969</v>
+        <v>2312610.3769007693</v>
       </c>
       <c r="E733">
-        <v>3821033.7700000098</v>
+        <v>3127695.1328218402</v>
       </c>
       <c r="F733">
-        <v>3755966.4640000099</v>
+        <v>3763982.9922426161</v>
       </c>
       <c r="G733">
-        <v>3111294.7089999998</v>
+        <v>3117935.2853056802</v>
       </c>
       <c r="H733">
-        <v>5028316.85499998</v>
+        <v>4838622.1489378652</v>
       </c>
       <c r="I733">
-        <v>6278435.2149999896</v>
+        <v>6291835.5618089484</v>
       </c>
       <c r="J733">
-        <v>4506774.6179999998</v>
+        <v>4516393.6298720548</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.45">
@@ -70430,31 +70430,31 @@
         <v>307</v>
       </c>
       <c r="B734">
-        <v>605222.39099999855</v>
+        <v>606514.14438411745</v>
       </c>
       <c r="C734">
-        <v>733641.68100000103</v>
+        <v>735207.52545363491</v>
       </c>
       <c r="D734">
-        <v>648102.41099999892</v>
+        <v>649485.68514040473</v>
       </c>
       <c r="E734">
-        <v>1647994.5210000013</v>
+        <v>649377.56486592372</v>
       </c>
       <c r="F734">
-        <v>1684863.1020000027</v>
+        <v>686324.83613743808</v>
       </c>
       <c r="G734">
-        <v>1528957.0649999974</v>
+        <v>530086.04186689737</v>
       </c>
       <c r="H734">
-        <v>1868595.3149999937</v>
+        <v>870449.19706758368</v>
       </c>
       <c r="I734">
-        <v>2219777.3640000005</v>
+        <v>1122167.3552179667</v>
       </c>
       <c r="J734">
-        <v>2105296.703999999</v>
+        <v>1107655.7884936987</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.45">
@@ -70462,31 +70462,31 @@
         <v>308</v>
       </c>
       <c r="B735">
-        <v>143416.83899999899</v>
+        <v>173786.97036323443</v>
       </c>
       <c r="C735">
-        <v>332578.08899999969</v>
+        <v>333287.9253813664</v>
       </c>
       <c r="D735">
-        <v>180418.67699999956</v>
+        <v>180803.75270116111</v>
       </c>
       <c r="E735">
-        <v>460841.18100000231</v>
+        <v>211291.18882046343</v>
       </c>
       <c r="F735">
-        <v>564532.84200000193</v>
+        <v>164884.01184866051</v>
       </c>
       <c r="G735">
-        <v>442568.81400000036</v>
+        <v>243086.53953531684</v>
       </c>
       <c r="H735">
-        <v>520908.19199999812</v>
+        <v>421806.55529505224</v>
       </c>
       <c r="I735">
-        <v>740142.12900000042</v>
+        <v>641508.41315232043</v>
       </c>
       <c r="J735">
-        <v>603100.0139999995</v>
+        <v>604387.23749938037</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.45">
@@ -70500,25 +70500,25 @@
         <v>0</v>
       </c>
       <c r="D736">
-        <v>22651.626000000004</v>
+        <v>22699.972384694975</v>
       </c>
       <c r="E736">
-        <v>92461.005000000354</v>
+        <v>92658.348683717079</v>
       </c>
       <c r="F736">
-        <v>103699.34400000008</v>
+        <v>103920.67417636976</v>
       </c>
       <c r="G736">
-        <v>99066.890999999872</v>
+        <v>99278.333923471262</v>
       </c>
       <c r="H736">
-        <v>79573.193999999625</v>
+        <v>79743.030648747546</v>
       </c>
       <c r="I736">
-        <v>136802.5229999999</v>
+        <v>137094.50678095233</v>
       </c>
       <c r="J736">
-        <v>113797.13399999973</v>
+        <v>114040.01634396696</v>
       </c>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.45">
@@ -70526,7 +70526,7 @@
         <v>310</v>
       </c>
       <c r="B737">
-        <v>27674.412000000186</v>
+        <v>27733.478742880325</v>
       </c>
       <c r="C737">
         <v>0</v>
@@ -70567,7 +70567,7 @@
         <v>0</v>
       </c>
       <c r="E738">
-        <v>14868.359999999886</v>
+        <v>14900.094209824085</v>
       </c>
       <c r="F738">
         <v>0</v>
@@ -70576,7 +70576,7 @@
         <v>0</v>
       </c>
       <c r="H738">
-        <v>12242.996999999907</v>
+        <v>12269.12777943187</v>
       </c>
       <c r="I738">
         <v>0</v>
